--- a/static/files/KPI_year.xlsx
+++ b/static/files/KPI_year.xlsx
@@ -7,15 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="非运营" sheetId="1" r:id="rId1"/>
-    <sheet name="运营" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
   <si>
     <t>姓名</t>
   </si>
@@ -32,40 +31,16 @@
     <t>入职时间</t>
   </si>
   <si>
-    <t>2016M1</t>
-  </si>
-  <si>
-    <t>2016M2</t>
-  </si>
-  <si>
-    <t>2016M3</t>
-  </si>
-  <si>
-    <t>2016M4</t>
-  </si>
-  <si>
-    <t>2016M5</t>
-  </si>
-  <si>
-    <t>2016M6</t>
-  </si>
-  <si>
-    <t>2016M7</t>
-  </si>
-  <si>
-    <t>2016M8</t>
-  </si>
-  <si>
-    <t>2016M9</t>
-  </si>
-  <si>
-    <t>2016M10</t>
-  </si>
-  <si>
-    <t>2016M11</t>
-  </si>
-  <si>
-    <t>2016M12</t>
+    <t>2016Q1</t>
+  </si>
+  <si>
+    <t>2016Q2</t>
+  </si>
+  <si>
+    <t>2016Q3</t>
+  </si>
+  <si>
+    <t>2016Q4</t>
   </si>
   <si>
     <t>孙秀全</t>
@@ -75,18 +50,6 @@
   </si>
   <si>
     <t>2015-05-18</t>
-  </si>
-  <si>
-    <t>2016Q1</t>
-  </si>
-  <si>
-    <t>2016Q2</t>
-  </si>
-  <si>
-    <t>2016Q3</t>
-  </si>
-  <si>
-    <t>2016Q4</t>
   </si>
   <si>
     <t>薛智敏</t>
@@ -433,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:J4"/>
+  <dimension ref="B2:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,142 +419,76 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3">
-        <v>79</v>
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:R3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2" spans="2:18">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18">
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/static/files/KPI_year.xlsx
+++ b/static/files/KPI_year.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
   <si>
     <t>姓名</t>
   </si>
@@ -58,10 +58,19 @@
     <t>技术部</t>
   </si>
   <si>
+    <t>华慧宁</t>
+  </si>
+  <si>
+    <t>管理部</t>
+  </si>
+  <si>
+    <t>倪培军</t>
+  </si>
+  <si>
+    <t>2015-11-13</t>
+  </si>
+  <si>
     <t>李璟</t>
-  </si>
-  <si>
-    <t>管理部</t>
   </si>
   <si>
     <t>2016-02-16</t>
@@ -396,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:J5"/>
+  <dimension ref="B2:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,7 +477,7 @@
         <v>11</v>
       </c>
       <c r="G4">
-        <v>79</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -482,12 +491,32 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5">
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6">
         <v>0</v>
       </c>
     </row>

--- a/static/files/KPI_year.xlsx
+++ b/static/files/KPI_year.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>姓名</t>
   </si>
@@ -31,49 +31,58 @@
     <t>入职时间</t>
   </si>
   <si>
-    <t>2016Q1</t>
-  </si>
-  <si>
-    <t>2016Q2</t>
-  </si>
-  <si>
-    <t>2016Q3</t>
-  </si>
-  <si>
-    <t>2016Q4</t>
-  </si>
-  <si>
-    <t>孙秀全</t>
-  </si>
-  <si>
-    <t>运营部</t>
+    <t>2016Q1分数</t>
+  </si>
+  <si>
+    <t>2016Q1等级</t>
+  </si>
+  <si>
+    <t>2016Q2分数</t>
+  </si>
+  <si>
+    <t>2016Q2等级</t>
+  </si>
+  <si>
+    <t>2016Q3分数</t>
+  </si>
+  <si>
+    <t>2016Q3等级</t>
+  </si>
+  <si>
+    <t>2016Q4分数</t>
+  </si>
+  <si>
+    <t>2016Q4等级</t>
+  </si>
+  <si>
+    <t>薛智敏</t>
+  </si>
+  <si>
+    <t>技术部</t>
+  </si>
+  <si>
+    <t>倪培军</t>
   </si>
   <si>
     <t>2015-05-18</t>
   </si>
   <si>
-    <t>薛智敏</t>
-  </si>
-  <si>
-    <t>技术部</t>
+    <t>C</t>
+  </si>
+  <si>
+    <t>李璟</t>
+  </si>
+  <si>
+    <t>管理部</t>
   </si>
   <si>
     <t>华慧宁</t>
   </si>
   <si>
-    <t>管理部</t>
-  </si>
-  <si>
-    <t>倪培军</t>
-  </si>
-  <si>
-    <t>2015-11-13</t>
-  </si>
-  <si>
-    <t>李璟</t>
-  </si>
-  <si>
     <t>2016-02-16</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -405,13 +414,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:J6"/>
+  <dimension ref="B2:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:14">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -439,85 +448,63 @@
       <c r="J2" t="s">
         <v>8</v>
       </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:14">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3">
-        <v>50</v>
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>97</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:14">
       <c r="B4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G4">
-        <v>77.5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
+        <v>87.1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/static/files/KPI_year.xlsx
+++ b/static/files/KPI_year.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="100">
   <si>
     <t>姓名</t>
   </si>
@@ -55,34 +55,265 @@
     <t>2016Q4等级</t>
   </si>
   <si>
+    <t>曹津</t>
+  </si>
+  <si>
+    <t>管理部</t>
+  </si>
+  <si>
+    <t>2015-05-18</t>
+  </si>
+  <si>
+    <t>孙秀全</t>
+  </si>
+  <si>
+    <t>运营部</t>
+  </si>
+  <si>
+    <t>王兵</t>
+  </si>
+  <si>
+    <t>技术部</t>
+  </si>
+  <si>
+    <t>孙格</t>
+  </si>
+  <si>
+    <t>刘宇</t>
+  </si>
+  <si>
+    <t>程骏</t>
+  </si>
+  <si>
+    <t>黄森</t>
+  </si>
+  <si>
+    <t>蒋琰</t>
+  </si>
+  <si>
+    <t>李勇</t>
+  </si>
+  <si>
+    <t>许建勇</t>
+  </si>
+  <si>
+    <t>苏曦</t>
+  </si>
+  <si>
+    <t>顾超</t>
+  </si>
+  <si>
+    <t>倪培军</t>
+  </si>
+  <si>
     <t>薛智敏</t>
   </si>
   <si>
-    <t>技术部</t>
-  </si>
-  <si>
-    <t>倪培军</t>
-  </si>
-  <si>
-    <t>2015-05-18</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>徐迟</t>
+  </si>
+  <si>
+    <t>产品部</t>
+  </si>
+  <si>
+    <t>郭茁</t>
+  </si>
+  <si>
+    <t>高茹</t>
+  </si>
+  <si>
+    <t>吴志峰</t>
+  </si>
+  <si>
+    <t>何贵芝</t>
+  </si>
+  <si>
+    <t>2015-06-15</t>
+  </si>
+  <si>
+    <t>张晋</t>
+  </si>
+  <si>
+    <t>2015-06-23</t>
+  </si>
+  <si>
+    <t>徐建锋</t>
+  </si>
+  <si>
+    <t>顾颖旻玉</t>
+  </si>
+  <si>
+    <t>朱维刚</t>
+  </si>
+  <si>
+    <t>杨林</t>
+  </si>
+  <si>
+    <t>江河冰</t>
+  </si>
+  <si>
+    <t>2015-07-01</t>
+  </si>
+  <si>
+    <t>2015-07-06</t>
+  </si>
+  <si>
+    <t>孙泰龙</t>
+  </si>
+  <si>
+    <t>胡天宇</t>
+  </si>
+  <si>
+    <t>2015-07-13</t>
+  </si>
+  <si>
+    <t>陆小峰</t>
+  </si>
+  <si>
+    <t>张永冬</t>
+  </si>
+  <si>
+    <t>2015-07-14</t>
+  </si>
+  <si>
+    <t>曹宇</t>
+  </si>
+  <si>
+    <t>2015-07-28</t>
+  </si>
+  <si>
+    <t>袁佳明</t>
+  </si>
+  <si>
+    <t>2015-08-03</t>
+  </si>
+  <si>
+    <t>冯伟敏</t>
+  </si>
+  <si>
+    <t>2015-08-06</t>
+  </si>
+  <si>
+    <t>尤苗苗</t>
+  </si>
+  <si>
+    <t>2015-08-17</t>
+  </si>
+  <si>
+    <t>朱震</t>
+  </si>
+  <si>
+    <t>2015-09-14</t>
+  </si>
+  <si>
+    <t>王鹏</t>
+  </si>
+  <si>
+    <t>2015-10-15</t>
+  </si>
+  <si>
+    <t>阮浪</t>
+  </si>
+  <si>
+    <t>2015-10-14</t>
+  </si>
+  <si>
+    <t>华慧宁</t>
+  </si>
+  <si>
+    <t>2015-11-13</t>
+  </si>
+  <si>
+    <t>孙康</t>
+  </si>
+  <si>
+    <t>2015-10-29</t>
+  </si>
+  <si>
+    <t>顾箴</t>
+  </si>
+  <si>
+    <t>2015-11-05</t>
+  </si>
+  <si>
+    <t>杨腾飞</t>
+  </si>
+  <si>
+    <t>2015-12-07</t>
+  </si>
+  <si>
+    <t>娄学明</t>
+  </si>
+  <si>
+    <t>程敏</t>
+  </si>
+  <si>
+    <t>运营</t>
+  </si>
+  <si>
+    <t>2016-02-17</t>
+  </si>
+  <si>
+    <t>王若男</t>
+  </si>
+  <si>
+    <t>2016-04-01</t>
+  </si>
+  <si>
+    <t>路以明</t>
+  </si>
+  <si>
+    <t>2015-12-21</t>
+  </si>
+  <si>
+    <t>沈达添</t>
+  </si>
+  <si>
+    <t>陈康敏</t>
+  </si>
+  <si>
+    <t>2015-08-10</t>
+  </si>
+  <si>
+    <t>2016-01-04</t>
+  </si>
+  <si>
+    <t>叶海邦</t>
+  </si>
+  <si>
+    <t>谷宛东</t>
+  </si>
+  <si>
+    <t>马璐璐</t>
+  </si>
+  <si>
+    <t>编辑部</t>
+  </si>
+  <si>
+    <t>2016-03-01</t>
+  </si>
+  <si>
+    <t>黄威伟</t>
+  </si>
+  <si>
+    <t>2016-01-05</t>
   </si>
   <si>
     <t>李璟</t>
   </si>
   <si>
-    <t>管理部</t>
-  </si>
-  <si>
-    <t>华慧宁</t>
-  </si>
-  <si>
     <t>2016-02-16</t>
   </si>
   <si>
-    <t>B</t>
+    <t>季琳洁</t>
+  </si>
+  <si>
+    <t>2016-02-22</t>
+  </si>
+  <si>
+    <t>丁正军</t>
+  </si>
+  <si>
+    <t>2016-02-15</t>
   </si>
 </sst>
 </file>
@@ -414,7 +645,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:N4"/>
+  <dimension ref="B2:N55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -469,42 +700,1092 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>97</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="G4">
-        <v>87.1</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" t="s">
         <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>87.25</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>88</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>86.5</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>88</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <v>86.5</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20">
+        <v>86.5</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21">
+        <v>83.5</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22">
+        <v>82.5</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23">
+        <v>93.5</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25">
+        <v>87.5</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26">
+        <v>89</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28">
+        <v>87</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30">
+        <v>80</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31">
+        <v>85.75</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34">
+        <v>88.5</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35">
+        <v>85</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s">
+        <v>66</v>
+      </c>
+      <c r="G36">
+        <v>84</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38">
+        <v>79.5</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" t="s">
+        <v>72</v>
+      </c>
+      <c r="G39">
+        <v>81.5</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" t="s">
+        <v>74</v>
+      </c>
+      <c r="G40">
+        <v>87</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" t="s">
+        <v>74</v>
+      </c>
+      <c r="G41">
+        <v>80</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" t="s">
+        <v>82</v>
+      </c>
+      <c r="G44">
+        <v>87.5</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" t="s">
+        <v>84</v>
+      </c>
+      <c r="E48" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" t="s">
+        <v>91</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" t="s">
+        <v>48</v>
+      </c>
+      <c r="E51" t="s">
+        <v>48</v>
+      </c>
+      <c r="F51" t="s">
+        <v>86</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" t="s">
+        <v>93</v>
+      </c>
+      <c r="G52">
+        <v>81.5</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" t="s">
+        <v>67</v>
+      </c>
+      <c r="E53" t="s">
+        <v>30</v>
+      </c>
+      <c r="F53" t="s">
+        <v>95</v>
+      </c>
+      <c r="G53">
+        <v>82.4</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" t="s">
+        <v>67</v>
+      </c>
+      <c r="F54" t="s">
+        <v>97</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/static/files/KPI_year.xlsx
+++ b/static/files/KPI_year.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="90">
   <si>
     <t>姓名</t>
   </si>
@@ -31,28 +31,28 @@
     <t>入职时间</t>
   </si>
   <si>
-    <t>2016Q1分数</t>
-  </si>
-  <si>
-    <t>2016Q1等级</t>
-  </si>
-  <si>
-    <t>2016Q2分数</t>
-  </si>
-  <si>
-    <t>2016Q2等级</t>
-  </si>
-  <si>
-    <t>2016Q3分数</t>
-  </si>
-  <si>
-    <t>2016Q3等级</t>
-  </si>
-  <si>
-    <t>2016Q4分数</t>
-  </si>
-  <si>
-    <t>2016Q4等级</t>
+    <t>2016年终评估Q1分数</t>
+  </si>
+  <si>
+    <t>2016年终评估Q1等级</t>
+  </si>
+  <si>
+    <t>2016年终评估Q2分数</t>
+  </si>
+  <si>
+    <t>2016年终评估Q2等级</t>
+  </si>
+  <si>
+    <t>2016年终评估Q3分数</t>
+  </si>
+  <si>
+    <t>2016年终评估Q3等级</t>
+  </si>
+  <si>
+    <t>2016年终评估Q4分数</t>
+  </si>
+  <si>
+    <t>2016年终评估Q4等级</t>
   </si>
   <si>
     <t>曹津</t>
@@ -64,25 +64,22 @@
     <t>2015-05-18</t>
   </si>
   <si>
-    <t>孙秀全</t>
+    <t>王兵</t>
+  </si>
+  <si>
+    <t>技术部</t>
+  </si>
+  <si>
+    <t>程骏</t>
   </si>
   <si>
     <t>运营部</t>
   </si>
   <si>
-    <t>王兵</t>
-  </si>
-  <si>
-    <t>技术部</t>
-  </si>
-  <si>
-    <t>孙格</t>
-  </si>
-  <si>
-    <t>刘宇</t>
-  </si>
-  <si>
-    <t>程骏</t>
+    <t>辛甜甜</t>
+  </si>
+  <si>
+    <t>曹剑</t>
   </si>
   <si>
     <t>黄森</t>
@@ -91,18 +88,12 @@
     <t>蒋琰</t>
   </si>
   <si>
-    <t>李勇</t>
-  </si>
-  <si>
-    <t>许建勇</t>
+    <t>顾超</t>
   </si>
   <si>
     <t>苏曦</t>
   </si>
   <si>
-    <t>顾超</t>
-  </si>
-  <si>
     <t>倪培军</t>
   </si>
   <si>
@@ -121,12 +112,6 @@
     <t>高茹</t>
   </si>
   <si>
-    <t>吴志峰</t>
-  </si>
-  <si>
-    <t>何贵芝</t>
-  </si>
-  <si>
     <t>2015-06-15</t>
   </si>
   <si>
@@ -145,9 +130,6 @@
     <t>朱维刚</t>
   </si>
   <si>
-    <t>杨林</t>
-  </si>
-  <si>
     <t>江河冰</t>
   </si>
   <si>
@@ -157,45 +139,24 @@
     <t>2015-07-06</t>
   </si>
   <si>
-    <t>孙泰龙</t>
-  </si>
-  <si>
-    <t>胡天宇</t>
+    <t>陆小峰</t>
   </si>
   <si>
     <t>2015-07-13</t>
   </si>
   <si>
-    <t>陆小峰</t>
-  </si>
-  <si>
-    <t>张永冬</t>
-  </si>
-  <si>
-    <t>2015-07-14</t>
-  </si>
-  <si>
-    <t>曹宇</t>
-  </si>
-  <si>
-    <t>2015-07-28</t>
-  </si>
-  <si>
     <t>袁佳明</t>
   </si>
   <si>
     <t>2015-08-03</t>
   </si>
   <si>
-    <t>冯伟敏</t>
-  </si>
-  <si>
-    <t>2015-08-06</t>
-  </si>
-  <si>
     <t>尤苗苗</t>
   </si>
   <si>
+    <t>王园卉</t>
+  </si>
+  <si>
     <t>2015-08-17</t>
   </si>
   <si>
@@ -205,16 +166,10 @@
     <t>2015-09-14</t>
   </si>
   <si>
-    <t>王鹏</t>
-  </si>
-  <si>
-    <t>2015-10-15</t>
-  </si>
-  <si>
-    <t>阮浪</t>
-  </si>
-  <si>
-    <t>2015-10-14</t>
+    <t>曾树楷</t>
+  </si>
+  <si>
+    <t>2017-01-03</t>
   </si>
   <si>
     <t>华慧宁</t>
@@ -223,12 +178,6 @@
     <t>2015-11-13</t>
   </si>
   <si>
-    <t>孙康</t>
-  </si>
-  <si>
-    <t>2015-10-29</t>
-  </si>
-  <si>
     <t>顾箴</t>
   </si>
   <si>
@@ -241,16 +190,40 @@
     <t>2015-12-07</t>
   </si>
   <si>
-    <t>娄学明</t>
-  </si>
-  <si>
-    <t>程敏</t>
-  </si>
-  <si>
-    <t>运营</t>
-  </si>
-  <si>
-    <t>2016-02-17</t>
+    <t>路以明</t>
+  </si>
+  <si>
+    <t>2015-12-21</t>
+  </si>
+  <si>
+    <t>2016-01-04</t>
+  </si>
+  <si>
+    <t>李璟</t>
+  </si>
+  <si>
+    <t>2016-02-15</t>
+  </si>
+  <si>
+    <t>霍之昊</t>
+  </si>
+  <si>
+    <t>丁正军</t>
+  </si>
+  <si>
+    <t>季琳洁</t>
+  </si>
+  <si>
+    <t>2016-02-22</t>
+  </si>
+  <si>
+    <t>代仟伍</t>
+  </si>
+  <si>
+    <t>项嘉</t>
+  </si>
+  <si>
+    <t>2016-05-11</t>
   </si>
   <si>
     <t>王若男</t>
@@ -259,61 +232,58 @@
     <t>2016-04-01</t>
   </si>
   <si>
-    <t>路以明</t>
-  </si>
-  <si>
-    <t>2015-12-21</t>
-  </si>
-  <si>
-    <t>沈达添</t>
-  </si>
-  <si>
-    <t>陈康敏</t>
-  </si>
-  <si>
-    <t>2015-08-10</t>
-  </si>
-  <si>
-    <t>2016-01-04</t>
-  </si>
-  <si>
-    <t>叶海邦</t>
-  </si>
-  <si>
-    <t>谷宛东</t>
-  </si>
-  <si>
-    <t>马璐璐</t>
-  </si>
-  <si>
-    <t>编辑部</t>
-  </si>
-  <si>
-    <t>2016-03-01</t>
-  </si>
-  <si>
-    <t>黄威伟</t>
-  </si>
-  <si>
-    <t>2016-01-05</t>
-  </si>
-  <si>
-    <t>李璟</t>
-  </si>
-  <si>
-    <t>2016-02-16</t>
-  </si>
-  <si>
-    <t>季琳洁</t>
-  </si>
-  <si>
-    <t>2016-02-22</t>
-  </si>
-  <si>
-    <t>丁正军</t>
-  </si>
-  <si>
-    <t>2016-02-15</t>
+    <t>刘亚玲</t>
+  </si>
+  <si>
+    <t>2016-05-09</t>
+  </si>
+  <si>
+    <t>2016-05-12</t>
+  </si>
+  <si>
+    <t>2016-07-01</t>
+  </si>
+  <si>
+    <t>孙宗妍</t>
+  </si>
+  <si>
+    <t>2016-05-27</t>
+  </si>
+  <si>
+    <t>2016-09-18</t>
+  </si>
+  <si>
+    <t>陈世豪</t>
+  </si>
+  <si>
+    <t>2016-07-12</t>
+  </si>
+  <si>
+    <t>郑达凯</t>
+  </si>
+  <si>
+    <t>2016-07-18</t>
+  </si>
+  <si>
+    <t>陈娴静</t>
+  </si>
+  <si>
+    <t>2016-08-22</t>
+  </si>
+  <si>
+    <t>杨璐</t>
+  </si>
+  <si>
+    <t>2016-08-15</t>
+  </si>
+  <si>
+    <t>孙美玲</t>
+  </si>
+  <si>
+    <t>王世欣</t>
+  </si>
+  <si>
+    <t>2017-01-09</t>
   </si>
 </sst>
 </file>
@@ -645,7 +615,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:N55"/>
+  <dimension ref="B2:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -734,10 +704,10 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
@@ -745,56 +715,47 @@
     </row>
     <row r="6" spans="2:14">
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="2:14">
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="2:14">
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -802,25 +763,19 @@
       <c r="F8" t="s">
         <v>15</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
     </row>
     <row r="9" spans="2:14">
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
@@ -828,16 +783,16 @@
     </row>
     <row r="10" spans="2:14">
       <c r="B10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -845,16 +800,16 @@
     </row>
     <row r="11" spans="2:14">
       <c r="B11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
@@ -862,549 +817,435 @@
     </row>
     <row r="12" spans="2:14">
       <c r="B12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
       </c>
-      <c r="G12">
-        <v>87.25</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="2:14">
       <c r="B13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13">
-        <v>88</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:14">
       <c r="B14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14">
-        <v>86.5</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="2:14">
       <c r="B15" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15">
-        <v>88</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="2:14">
       <c r="B16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16">
-        <v>86.5</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
       <c r="B17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
       <c r="B19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
       <c r="B20" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20">
-        <v>86.5</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
       <c r="B21" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21">
-        <v>83.5</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
       <c r="B22" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
         <v>29</v>
       </c>
-      <c r="E22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22">
-        <v>82.5</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23">
-        <v>93.5</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
         <v>29</v>
       </c>
-      <c r="E24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="B25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25">
-        <v>87.5</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="B26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" t="s">
-        <v>46</v>
-      </c>
-      <c r="G26">
-        <v>89</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="B27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="B28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" t="s">
-        <v>19</v>
-      </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>49</v>
-      </c>
-      <c r="G28">
-        <v>87</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
       <c r="B29" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
       <c r="B30" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>54</v>
-      </c>
-      <c r="G30">
-        <v>80</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
       <c r="B31" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
         <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
-      </c>
-      <c r="G31">
-        <v>85.75</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
       <c r="B32" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
       <c r="B33" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
         <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E33" t="s">
         <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
       <c r="B34" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D34" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
-      </c>
-      <c r="G34">
-        <v>88.5</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
       <c r="B35" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
         <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E35" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>64</v>
-      </c>
-      <c r="G35">
-        <v>85</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
       <c r="B36" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s">
         <v>19</v>
-      </c>
-      <c r="D36" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" t="s">
-        <v>66</v>
-      </c>
-      <c r="G36">
-        <v>84</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9">
-      <c r="B37" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" t="s">
-        <v>14</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
@@ -1413,379 +1254,160 @@
         <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>68</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
       <c r="B38" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E38" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="F38" t="s">
-        <v>70</v>
-      </c>
-      <c r="G38">
-        <v>79.5</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
       <c r="B39" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D39" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E39" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>72</v>
-      </c>
-      <c r="G39">
-        <v>81.5</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
       <c r="B40" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="C40" t="s">
         <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E40" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F40" t="s">
-        <v>74</v>
-      </c>
-      <c r="G40">
-        <v>87</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
       <c r="B41" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" t="s">
         <v>19</v>
       </c>
-      <c r="D41" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" t="s">
-        <v>74</v>
-      </c>
-      <c r="G41">
-        <v>80</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9">
-      <c r="B42" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" t="s">
-        <v>77</v>
-      </c>
       <c r="D42" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F42" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
       <c r="B43" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D43" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
       <c r="B44" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s">
         <v>19</v>
       </c>
       <c r="D44" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E44" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F44" t="s">
-        <v>82</v>
-      </c>
-      <c r="G44">
-        <v>87.5</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
       <c r="B45" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="F45" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
       <c r="B46" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D46" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9">
-      <c r="B47" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9">
-      <c r="B48" t="s">
-        <v>87</v>
-      </c>
-      <c r="C48" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" t="s">
-        <v>84</v>
-      </c>
-      <c r="E48" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9">
-      <c r="B49" t="s">
-        <v>88</v>
-      </c>
-      <c r="C49" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" t="s">
-        <v>84</v>
-      </c>
-      <c r="E49" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9">
-      <c r="B50" t="s">
         <v>89</v>
-      </c>
-      <c r="C50" t="s">
-        <v>90</v>
-      </c>
-      <c r="D50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" t="s">
-        <v>91</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9">
-      <c r="B51" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D51" t="s">
-        <v>48</v>
-      </c>
-      <c r="E51" t="s">
-        <v>48</v>
-      </c>
-      <c r="F51" t="s">
-        <v>86</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9">
-      <c r="B52" t="s">
-        <v>92</v>
-      </c>
-      <c r="C52" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" t="s">
-        <v>27</v>
-      </c>
-      <c r="E52" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52" t="s">
-        <v>93</v>
-      </c>
-      <c r="G52">
-        <v>81.5</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9">
-      <c r="B53" t="s">
-        <v>94</v>
-      </c>
-      <c r="C53" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" t="s">
-        <v>67</v>
-      </c>
-      <c r="E53" t="s">
-        <v>30</v>
-      </c>
-      <c r="F53" t="s">
-        <v>95</v>
-      </c>
-      <c r="G53">
-        <v>82.4</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9">
-      <c r="B54" t="s">
-        <v>96</v>
-      </c>
-      <c r="C54" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" t="s">
-        <v>29</v>
-      </c>
-      <c r="E54" t="s">
-        <v>67</v>
-      </c>
-      <c r="F54" t="s">
-        <v>97</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9">
-      <c r="B55" t="s">
-        <v>98</v>
-      </c>
-      <c r="C55" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" t="s">
-        <v>23</v>
-      </c>
-      <c r="E55" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
